--- a/Lipids/Lipids-determination.xlsx
+++ b/Lipids/Lipids-determination.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\OneDrive\Documentos\GitHub\UC_projeto\Lipids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F3B22C-D2B2-4CD4-880B-F984A31F9B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA8A124-D81C-45D2-9B19-066B2926D999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{55FC1998-FFE3-4E17-98A3-42F2CB7546AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{55FC1998-FFE3-4E17-98A3-42F2CB7546AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Phosphatylglycerol" sheetId="1" r:id="rId1"/>
+    <sheet name="Phosphatidylglycerol" sheetId="1" r:id="rId1"/>
     <sheet name="Phosphatidylethanolamine " sheetId="2" r:id="rId2"/>
     <sheet name="Phosphatidylinositol " sheetId="3" r:id="rId3"/>
     <sheet name="Phosphatidylcholine" sheetId="4" r:id="rId4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="250">
   <si>
     <t>pg18111Z160</t>
   </si>
@@ -764,13 +764,40 @@
   </si>
   <si>
     <t>Formula</t>
+  </si>
+  <si>
+    <t>1-(11Z-octadecenoyl)-2-(5Z,9Z,12Z-octadecatrienoyl)-sn-glycero-3-phosphocholine</t>
+  </si>
+  <si>
+    <t>C57H104O6</t>
+  </si>
+  <si>
+    <t>C57H106O6</t>
+  </si>
+  <si>
+    <t>C55H102O6</t>
+  </si>
+  <si>
+    <t>C57H100O6</t>
+  </si>
+  <si>
+    <t>C57H98O6</t>
+  </si>
+  <si>
+    <t>C55H98O6</t>
+  </si>
+  <si>
+    <t>C55H96O6</t>
+  </si>
+  <si>
+    <t>tirar reaçoes do mgdg1819z1634z7z10z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,8 +909,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Oxygen"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,8 +940,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -939,11 +983,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1028,6 +1085,25 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,7 +1422,7 @@
   <dimension ref="C17:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,7 +1452,7 @@
       <c r="D18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="32">
         <v>31499</v>
       </c>
       <c r="F18" s="21" t="s">
@@ -1416,7 +1492,7 @@
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="32">
         <v>765976</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -1444,7 +1520,7 @@
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="32">
         <v>765977</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -1472,7 +1548,7 @@
       <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="32">
         <v>765978</v>
       </c>
       <c r="F25" s="22" t="s">
@@ -1534,7 +1610,7 @@
   <dimension ref="D3:F10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1641,7 +1717,7 @@
   <dimension ref="D4:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1670,7 +1746,7 @@
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="32">
         <v>4854</v>
       </c>
       <c r="G5" s="15" t="s">
@@ -1702,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D74092-BDCD-4272-BA07-B7C2B70A6CF8}">
-  <dimension ref="D4:H13"/>
+  <dimension ref="D4:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1834,7 +1910,7 @@
       <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="32">
         <v>10694</v>
       </c>
       <c r="G11" s="19" t="s">
@@ -1851,7 +1927,7 @@
       <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="32">
         <v>10692</v>
       </c>
       <c r="G12" s="20" t="s">
@@ -1869,8 +1945,15 @@
         <v>37</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="31" t="s">
+        <v>241</v>
+      </c>
       <c r="H13" s="30"/>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1880,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B6D550-8E43-4680-B258-4EA46CDA725B}">
-  <dimension ref="D4:G46"/>
+  <dimension ref="D4:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1892,9 +1975,10 @@
     <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="11.21875" customWidth="1"/>
     <col min="7" max="7" width="70.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D4" s="7" t="s">
         <v>204</v>
       </c>
@@ -1902,59 +1986,66 @@
       <c r="F4" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="33" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="32">
         <v>99060</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="34"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="32">
         <v>98268</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="34"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="32">
         <v>80146</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="34"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="32">
         <v>80148</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="34"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D9" s="3" t="s">
         <v>46</v>
       </c>
@@ -1962,9 +2053,12 @@
         <v>45</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="34"/>
+      <c r="H9" s="37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D10" s="3" t="s">
         <v>48</v>
       </c>
@@ -1972,9 +2066,12 @@
         <v>47</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="34"/>
+      <c r="H10" s="36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
@@ -1984,9 +2081,10 @@
       <c r="F11" s="3">
         <v>99062</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="34"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
         <v>50</v>
       </c>
@@ -1996,21 +2094,23 @@
       <c r="F12" s="3">
         <v>98270</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="34"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D13" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="32">
         <v>80154</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="34"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
@@ -2020,9 +2120,10 @@
       <c r="F14" s="3">
         <v>80156</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="34"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D15" s="3" t="s">
         <v>53</v>
       </c>
@@ -2030,9 +2131,12 @@
         <v>45</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="34"/>
+      <c r="H15" s="37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D16" s="3" t="s">
         <v>54</v>
       </c>
@@ -2040,9 +2144,12 @@
         <v>47</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="34"/>
+      <c r="H16" s="36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" s="3" t="s">
         <v>55</v>
       </c>
@@ -2052,9 +2159,10 @@
       <c r="F17" s="3">
         <v>102109</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="34"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="3" t="s">
         <v>57</v>
       </c>
@@ -2064,21 +2172,23 @@
       <c r="F18" s="3">
         <v>116699</v>
       </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="34"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="32">
         <v>111412</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="34"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" s="3" t="s">
         <v>60</v>
       </c>
@@ -2088,9 +2198,10 @@
       <c r="F20" s="3">
         <v>111414</v>
       </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="34"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" s="3" t="s">
         <v>62</v>
       </c>
@@ -2098,9 +2209,12 @@
         <v>61</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="34"/>
+      <c r="H21" s="36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
         <v>64</v>
       </c>
@@ -2108,57 +2222,64 @@
         <v>63</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="34"/>
+      <c r="H22" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D23" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="32">
         <v>81902</v>
       </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="34"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="32">
         <v>111526</v>
       </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="34"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D25" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="32">
         <v>107660</v>
       </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="34"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="32">
         <v>107662</v>
       </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="34"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D27" s="3" t="s">
         <v>71</v>
       </c>
@@ -2166,9 +2287,12 @@
         <v>70</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="34"/>
+      <c r="H27" s="36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D28" s="3" t="s">
         <v>73</v>
       </c>
@@ -2176,57 +2300,68 @@
         <v>72</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="34"/>
+      <c r="H28" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D29" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="32">
         <v>81904</v>
       </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="34"/>
+      <c r="H29" s="35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D30" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="8">
-        <v>208463</v>
-      </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="32">
+        <v>111528</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D31" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="32">
         <v>107668</v>
       </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="34"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D32" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="32">
         <v>107670</v>
       </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="34"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D33" s="3" t="s">
         <v>78</v>
       </c>
@@ -2234,9 +2369,12 @@
         <v>70</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="34"/>
+      <c r="H33" s="36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D34" s="3" t="s">
         <v>79</v>
       </c>
@@ -2244,45 +2382,51 @@
         <v>72</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="34"/>
+      <c r="H34" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D35" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="32">
         <v>81934</v>
       </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="34"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D36" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="32">
         <v>111562</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="34"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D37" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="32">
         <v>107716</v>
       </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="34"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D38" s="3" t="s">
         <v>83</v>
       </c>
@@ -2290,11 +2434,12 @@
         <v>67</v>
       </c>
       <c r="F38" s="3">
-        <v>76658</v>
-      </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+        <v>107718</v>
+      </c>
+      <c r="G38" s="34"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D39" s="3" t="s">
         <v>84</v>
       </c>
@@ -2302,9 +2447,12 @@
         <v>70</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="34"/>
+      <c r="H39" s="36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D40" s="3" t="s">
         <v>85</v>
       </c>
@@ -2312,9 +2460,12 @@
         <v>72</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G40" s="34"/>
+      <c r="H40" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D41" s="3" t="s">
         <v>86</v>
       </c>
@@ -2324,9 +2475,12 @@
       <c r="F41" s="3">
         <v>81936</v>
       </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G41" s="34"/>
+      <c r="H41" s="35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D42" s="3" t="s">
         <v>87</v>
       </c>
@@ -2339,20 +2493,26 @@
       <c r="G42" s="28" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D43" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="32">
         <v>107724</v>
       </c>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G43" s="34"/>
+      <c r="H43" s="35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D44" s="3" t="s">
         <v>89</v>
       </c>
@@ -2362,9 +2522,12 @@
       <c r="F44" s="3">
         <v>107726</v>
       </c>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G44" s="34"/>
+      <c r="H44" s="35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D45" s="3" t="s">
         <v>90</v>
       </c>
@@ -2372,9 +2535,12 @@
         <v>70</v>
       </c>
       <c r="F45" s="8"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G45" s="34"/>
+      <c r="H45" s="36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D46" s="3" t="s">
         <v>91</v>
       </c>
@@ -2382,7 +2548,10 @@
         <v>72</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="4"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="36" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2395,7 +2564,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2483,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BB4A99-ECDD-4EF7-A4D2-AA100D13981A}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2698,6 +2867,11 @@
         <v>149</v>
       </c>
     </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2709,7 +2883,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
